--- a/data/long_bre/P16-Edad-long_bre.xlsx
+++ b/data/long_bre/P16-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-16,07</t>
+          <t>-19,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,14</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-52,94%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>64,98%</t>
+          <t>-57,63%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>59,38%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 23,75</t>
+          <t>-2,38; 21,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,07; -4,78</t>
+          <t>-31,88; -7,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 23,55</t>
+          <t>-1,32; 21,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 120,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-74,25; -17,5</t>
+          <t>-7,98; 110,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 189,18</t>
+          <t>-75,2; -22,3</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; 151,5</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,42</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,88</t>
+          <t>-7,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>-10,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,28%</t>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-12,65%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 6,92</t>
+          <t>-17,25; 8,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 15,36</t>
+          <t>-12,0; 16,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 4,08</t>
+          <t>-20,52; 6,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,69; 17,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 33,78</t>
+          <t>-32,97; 19,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,74; 7,63</t>
+          <t>-20,21; 39,43</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-30,01; 13,25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,57</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,27</t>
+          <t>16,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-22,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>-15,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,95%</t>
+          <t>107,29%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-17,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 4,75</t>
+          <t>-15,24; 7,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 27,72</t>
+          <t>5,03; 28,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 7,79</t>
+          <t>-17,4; 5,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-49,72; 22,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,78; 275,86</t>
+          <t>-45,27; 31,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,03; 52,73</t>
+          <t>19,96; 265,1</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-57,94; 36,83</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-39,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 15,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,56; -0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 6,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,19; 113,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,92; 2,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,99; 36,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>-11,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-2,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,1%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>-37,64%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-12,65%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 8,59</t>
+          <t>-13,35; 14,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 24,45</t>
+          <t>-29,65; 0,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 11,13</t>
+          <t>-12,25; 6,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 17,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 70,07</t>
+          <t>-48,96; 126,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 23,76</t>
+          <t>-70,41; 3,67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-44,86; 46,23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>-9,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-1,71%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 13,64</t>
+          <t>-18,67; 10,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 13,94</t>
+          <t>-3,32; 24,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 13,03</t>
+          <t>-14,32; 10,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 82,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 83,41</t>
+          <t>-28,82; 19,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 76,71</t>
+          <t>-5,97; 74,98</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-21,68; 22,4</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,78%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 11,14</t>
+          <t>-9,48; 12,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 7,08</t>
+          <t>-14,45; 13,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 10,88</t>
+          <t>-7,32; 12,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-43,88; 77,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-38,11; 52,42</t>
+          <t>-32,27; 76,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 109,66</t>
+          <t>-40,31; 67,54</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-27,19; 79,87</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-5,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,86</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-14,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 15,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 4,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 34,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,56; 8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 1,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-17,04%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>26,85%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>-8,62%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>35,15%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 4,09</t>
+          <t>-3,11; 13,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 16,56</t>
+          <t>-10,44; 5,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 12,59</t>
+          <t>-2,09; 11,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-53,73; 25,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 86,42</t>
+          <t>-13,88; 100,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,08; 65,98</t>
+          <t>-43,5; 41,82</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-12,64; 118,76</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-8,57</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-8,1</t>
+          <t>-9,53</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-40,21%</t>
+          <t>-1,76%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-36,63%</t>
+          <t>-11,08%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-15,37%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 10,2</t>
+          <t>-12,18; 10,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-16,08; -1,74</t>
+          <t>-17,8; 4,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,58; -1,0</t>
+          <t>-18,88; 0,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 65,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-61,41; -7,26</t>
+          <t>-19,17; 19,19</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-58,07; -5,02</t>
+          <t>-28,43; 8,84</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-28,65; 0,35</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>7,89</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>-18,29%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>32,09%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 11,67</t>
+          <t>-14,34; 4,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 19,53</t>
+          <t>-1,69; 17,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 12,75</t>
+          <t>-3,99; 13,19</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 22,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 40,27</t>
+          <t>-45,48; 24,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 26,36</t>
+          <t>-5,05; 89,77</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-13,03; 69,3</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-24,07%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 1,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 7,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 11,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-48,78; 9,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 42,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,74; 59,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>-8,34</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-32,05%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-35,18%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>-39,46%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-37,18%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 1,36</t>
+          <t>-4,33; 10,76</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 0,97</t>
+          <t>-14,83; -0,69</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 8,7</t>
+          <t>-17,09; -1,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-63,2; 11,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-62,29; 5,7</t>
+          <t>-18,96; 70,15</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-28,59; 77,68</t>
+          <t>-60,2; -4,76</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-60,72; -6,49</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1603,37 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>14,05%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 21,45</t>
+          <t>-5,96; 11,98</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 13,49</t>
+          <t>-2,03; 17,47</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 11,13</t>
+          <t>-4,93; 12,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 49,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 27,0</t>
+          <t>-9,62; 22,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 19,98</t>
+          <t>-3,04; 35,54</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-8,63; 26,07</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1679,37 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-9,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>-24,65%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-16,13%</t>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>17,66%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 8,1</t>
+          <t>-13,81; 1,23</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 15,65</t>
+          <t>-8,46; 8,91</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 4,77</t>
+          <t>-3,35; 11,04</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 37,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 88,28</t>
+          <t>-50,41; 7,12</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-41,01; 25,76</t>
+          <t>-30,13; 51,78</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-11,76; 55,66</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-13,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-53,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 12,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 19,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-24,21; -4,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-35,89; 89,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 132,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-72,04; -21,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-5,17</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-7,75</t>
+          <t>-6,82</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-13,73%</t>
+          <t>-25,67%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>-31,15%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 6,65</t>
+          <t>-14,62; 3,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 8,39</t>
+          <t>-15,73; 1,16</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 17,07</t>
+          <t>-6,35; 7,58</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-29,82; 14,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 17,56</t>
+          <t>-55,42; 22,38</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 36,72</t>
+          <t>-59,38; 9,87</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-35,18; 61,61</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 15,81</t>
+          <t>-2,06; 20,53</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 12,65</t>
+          <t>-10,1; 11,98</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 22,29</t>
+          <t>-7,5; 10,97</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 94,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-32,02; 76,37</t>
+          <t>-3,53; 46,27</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 127,36</t>
+          <t>-16,85; 23,27</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-11,5; 19,69</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>-25,13%</t>
+          <t>-12,2%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>-9,15%</t>
+          <t>27,56%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>-14,61%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 6,89</t>
+          <t>-14,71; 6,77</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-10,95; -1,35</t>
+          <t>-3,85; 15,34</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 1,71</t>
+          <t>-11,43; 4,3</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 38,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-40,24; -6,02</t>
+          <t>-41,81; 30,88</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 10,75</t>
+          <t>-17,27; 90,88</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-42,89; 22,05</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 5,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 3,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 10,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 12,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 6,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>-12,38</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>-49,97%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,83</t>
+          <t>-6,83; 10,6</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>0,4; 9,22</t>
+          <t>-8,7; 16,84</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 7,63</t>
+          <t>-22,06; -2,71</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>1,4; 45,85</t>
+          <t>-31,15; 81,82</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 36,9</t>
+          <t>-32,31; 113,57</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-69,83; -10,69</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-7,74</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-6,49</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-13,2%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-11,53%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>8,41%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-21,0; 4,03</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-20,34; 7,19</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-7,09; 16,1</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-32,09; 8,55</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-31,3; 15,19</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; 34,74</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>6,32</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>7,86</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>27,54%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>36,5%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-4,78; 17,85</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; 12,85</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 18,24</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-17,05; 96,7</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-30,69; 76,27</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-14,4; 113,32</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-6,62</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>14,27%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>-27,33%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>-7,38%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 7,02</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-12,14; -2,14</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 1,93</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 40,11</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-42,35; -9,06</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-23,83; 11,62</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 4,26</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 7,1</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 3,39</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 8,28</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 14,41</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 6,18</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>5,33</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>-6,34%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>23,78%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 2,74</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 9,76</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 6,55</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-22,92; 12,36</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 49,26</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 31,28</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
